--- a/dist/test.xlsx
+++ b/dist/test.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$139.12</t>
         </is>
       </c>
     </row>
